--- a/biology/Histoire de la zoologie et de la botanique/David_Prain/David_Prain.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/David_Prain/David_Prain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sir David Prain est un botaniste britannique, né le 11 juillet 1857 à Fettercairn en Écosse et mort le 16 mars 1944 à Whyteleafe dans le Surrey.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de David et de Mary née Thomson. Il obtient son Master of Arts à l’université d’Aberdeen en 1878, puis son Bachelor of Medicine et son Master of Surgery en 1883. Il se marie avec Margaret Thomson en 1887, union dont naîtra un fils.
 En 1882-1883, il est démonstrateur d’anatomie à l’école de chirurgie d’Édimbourg puis à l’université d'Aberdeen en 1883-1884. En 1884, il entre dans le service de médecine de l’Inde.
@@ -551,7 +565,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
         </is>
